--- a/design/test_profile.xlsx
+++ b/design/test_profile.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mngoc\workspace\LDC\Zylinderkopfpruefstand\design\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="1170" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,52 +24,52 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t xml:space="preserve">Zeit Dauer [s]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drezahl [1/min]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kommentar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hilfe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Table data model with 4 columns (see red)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ramp up 0 - 500 RPM in 5s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hold 500RPM for 200s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ramp up 500 - 1000 RPM in 5s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hold 1000RPM for 200s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ramp down 1000 - 700 RPM in 10s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ramp down 700 - 0 RPM in 100s</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>Kommentar</t>
+  </si>
+  <si>
+    <t>Hilfe</t>
+  </si>
+  <si>
+    <t>Table data model with 4 columns (see red)</t>
+  </si>
+  <si>
+    <t>ramp up 0 - 500 RPM in 5s</t>
+  </si>
+  <si>
+    <t>hold 500RPM for 200s</t>
+  </si>
+  <si>
+    <t>ramp up 500 - 1000 RPM in 5s</t>
+  </si>
+  <si>
+    <t>hold 1000RPM for 200s</t>
+  </si>
+  <si>
+    <t>ramp down 1000 - 700 RPM in 10s</t>
+  </si>
+  <si>
+    <t>ramp down 700 - 0 RPM in 100s</t>
+  </si>
+  <si>
+    <t>FbSpeed</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Speed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -74,22 +78,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -97,20 +86,9 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF595959"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -124,133 +102,99 @@
     </fill>
   </fills>
   <borders count="5">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="14">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -309,15 +253,33 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -326,7 +288,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+              <a:defRPr sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -334,7 +296,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
+              <a:rPr lang="de-DE" sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -345,6 +307,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -355,19 +318,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="line"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="5b9bd5"/>
-            </a:solidFill>
             <a:ln w="19080">
               <a:solidFill>
-                <a:srgbClr val="5b9bd5"/>
+                <a:srgbClr val="5B9BD5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -376,18 +337,26 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -396,15 +365,39 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$E$2:$E$16</c:f>
+              <c:f>Tabelle1!$G$2:$G$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>520</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -436,7 +429,20 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C97D-445B-945A-0868C945C533}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="98173737"/>
         <c:axId val="13103392"/>
       </c:scatterChart>
@@ -451,7 +457,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -464,7 +470,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" lang="de-DE" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr lang="de-DE" sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -472,7 +478,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" lang="de-DE" sz="1000" spc="-1" strike="noStrike">
+                  <a:rPr lang="de-DE" sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -483,6 +489,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -498,7 +505,7 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="bfbfbf"/>
+              <a:srgbClr val="BFBFBF"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -508,13 +515,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="13103392"/>
@@ -532,7 +540,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -545,7 +553,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" lang="de-DE" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr lang="de-DE" sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -553,7 +561,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" lang="de-DE" sz="1000" spc="-1" strike="noStrike">
+                  <a:rPr lang="de-DE" sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -564,6 +572,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -579,7 +588,7 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="bfbfbf"/>
+              <a:srgbClr val="BFBFBF"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -589,13 +598,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="98173737"/>
@@ -611,23 +621,29 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -637,18 +653,18 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>18720</xdr:colOff>
+      <xdr:colOff>1428420</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>90720</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Diagramm 2"/>
+        <xdr:cNvPr id="2" name="Diagramm 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="1622160"/>
-        <a:ext cx="6432840" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -661,170 +677,432 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="30.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="5.28"/>
+    <col min="1" max="1" width="5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="0" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6">
+        <v>500</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G2">
+        <f>B2</f>
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7" t="n">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6">
+        <v>200</v>
+      </c>
+      <c r="C3" s="6">
+        <v>500</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="7" t="n">
-        <v>500</v>
-      </c>
-      <c r="D2" s="8" t="n">
+      <c r="G3">
+        <f>B3 + G2</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6">
+        <v>5</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1000</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="0" t="n">
-        <f aca="false">B2</f>
-        <v>5</v>
+      <c r="G4">
+        <f>B4 + G3</f>
+        <v>210</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7" t="n">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6">
         <v>200</v>
       </c>
-      <c r="C3" s="7" t="n">
-        <v>500</v>
-      </c>
-      <c r="D3" s="8" t="n">
+      <c r="C5" s="6">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="7">
         <v>1</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="0" t="n">
-        <f aca="false">B3 + F2</f>
-        <v>205</v>
+      <c r="G5">
+        <f>B5 + G4</f>
+        <v>410</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C4" s="7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D4" s="8" t="n">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6">
+        <v>10</v>
+      </c>
+      <c r="C6" s="6">
+        <v>700</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="7">
         <v>1</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="0" t="n">
-        <f aca="false">B4 + F3</f>
-        <v>210</v>
+      <c r="G6">
+        <f>B6 + G5</f>
+        <v>420</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7" t="n">
-        <v>200</v>
-      </c>
-      <c r="C5" s="7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D5" s="8" t="n">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10">
+        <v>100</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="9">
         <v>1</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="F7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="0" t="n">
-        <f aca="false">B5 + F4</f>
-        <v>410</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="C6" s="7" t="n">
-        <v>700</v>
-      </c>
-      <c r="D6" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <f aca="false">B6 + F5</f>
-        <v>420</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11" t="n">
-        <v>100</v>
-      </c>
-      <c r="C7" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <f aca="false">B7 + F6</f>
+      <c r="G7">
+        <f>B7 + G6</f>
         <v>520</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>